--- a/Code/NIFTY/CALL.xlsx
+++ b/Code/NIFTY/CALL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singhal\Desktop\ifty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singhal\Desktop\Projects\Code\NIFTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>Premium</t>
-  </si>
-  <si>
-    <t>03-Jan-2017, NIFTY 8192.25</t>
   </si>
   <si>
     <t>25JAN2017</t>
@@ -166,7 +163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,7 +198,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -421,7 +418,7 @@
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,11 +431,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" thickBot="1">
       <c r="A2" s="2">
         <v>42714</v>
       </c>
@@ -446,16 +440,13 @@
         <v>9400</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3">
         <v>40</v>
       </c>
-      <c r="E2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
+    </row>
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="2">
         <v>42715</v>
       </c>
@@ -463,16 +454,13 @@
         <v>7900</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3">
         <v>30</v>
       </c>
-      <c r="E3">
-        <v>322.64999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
+    </row>
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" thickBot="1">
       <c r="A4" s="2">
         <v>42716</v>
       </c>
@@ -480,16 +468,13 @@
         <v>8000</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>50</v>
       </c>
-      <c r="E4">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" thickBot="1">
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="2">
         <v>42717</v>
       </c>
@@ -497,13 +482,10 @@
         <v>8100</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>167.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" thickBot="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="2">
         <v>42718</v>
       </c>
@@ -511,10 +493,10 @@
         <v>6450</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" thickBot="1">
       <c r="A7" s="2">
         <v>42719</v>
       </c>
@@ -522,13 +504,10 @@
         <v>8300</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>61.55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" thickBot="1">
       <c r="A8" s="2">
         <v>42720</v>
       </c>
@@ -536,13 +515,10 @@
         <v>8400</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>31.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" thickBot="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" thickBot="1">
       <c r="A9" s="2">
         <v>42721</v>
       </c>
@@ -550,7 +526,7 @@
         <v>6450</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Code/NIFTY/CALL.xlsx
+++ b/Code/NIFTY/CALL.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singhal\Desktop\Projects\Code\NIFTY\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -33,30 +28,40 @@
     <t>Premium</t>
   </si>
   <si>
+    <t>03-Jan-2017, NIFTY 8192.25</t>
+  </si>
+  <si>
+    <t>04-Jan-2017, NIFTY 8192.25</t>
+  </si>
+  <si>
     <t>25JAN2017</t>
+  </si>
+  <si>
+    <t>23FEB2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Liberation Serif"/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Liberation Serif"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,36 +92,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="15" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -406,19 +402,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col customWidth="1" max="3" min="3" width="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="16.5" r="1" spans="1:12" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,105 +431,322 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A2" s="2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18.75" r="2" spans="1:12" thickBot="1">
+      <c r="A2" s="2" t="n">
         <v>42714</v>
       </c>
-      <c r="B2" s="3">
-        <v>9400</v>
+      <c r="B2" s="3" t="n">
+        <v>8500</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="n">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A3" s="2">
+      <c r="E2" t="n">
+        <v>243</v>
+      </c>
+      <c r="F2" t="n">
+        <v>243</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="H2" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="I2" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="J2" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="K2" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="L2" t="n">
+        <v>14.35</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.5" r="3" spans="1:12" thickBot="1">
+      <c r="A3" s="2" t="n">
         <v>42715</v>
       </c>
-      <c r="B3" s="3">
-        <v>7900</v>
+      <c r="B3" s="3" t="n">
+        <v>8500</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="n">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A4" s="2">
+      <c r="E3" t="n">
+        <v>321.6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>321.6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="H3" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>68.40000000000001</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18.75" r="4" spans="1:12" thickBot="1">
+      <c r="A4" s="2" t="n">
         <v>42716</v>
       </c>
-      <c r="B4" s="3">
-        <v>8000</v>
+      <c r="B4" s="3" t="n">
+        <v>8100</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" thickBot="1">
-      <c r="A5" s="2">
+      <c r="E4" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="G4" t="n">
+        <v>167.25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>167.25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>167.25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>167.25</v>
+      </c>
+      <c r="K4" t="n">
+        <v>167.25</v>
+      </c>
+      <c r="L4" t="n">
+        <v>167.25</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="5" spans="1:12" thickBot="1">
+      <c r="A5" s="2" t="n">
         <v>42717</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="3" t="n">
         <v>8100</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" thickBot="1">
-      <c r="A6" s="2">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>257.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>257.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>257.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>257.3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>257.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>257.3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="6" spans="1:12" thickBot="1">
+      <c r="A6" s="2" t="n">
         <v>42718</v>
       </c>
-      <c r="B6" s="3">
-        <v>6450</v>
+      <c r="B6" s="3" t="n">
+        <v>8900</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>167.25</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18.75" r="7" spans="1:12" thickBot="1">
+      <c r="A7" s="2" t="n">
         <v>42719</v>
       </c>
-      <c r="B7" s="3">
-        <v>8300</v>
+      <c r="B7" s="3" t="n">
+        <v>8900</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>360</v>
+      </c>
+      <c r="F7" t="n">
+        <v>257.3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9.050000000000001</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18.75" r="8" spans="1:12" thickBot="1">
+      <c r="A8" s="2" t="n">
         <v>42720</v>
       </c>
-      <c r="B8" s="3">
-        <v>8400</v>
+      <c r="B8" s="3" t="n">
+        <v>8700</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18.75" r="9" spans="1:12" thickBot="1">
+      <c r="A9" s="2" t="n">
         <v>42721</v>
       </c>
-      <c r="B9" s="3">
-        <v>6450</v>
+      <c r="B9" s="3" t="n">
+        <v>8700</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Code/NIFTY/CALL.xlsx
+++ b/Code/NIFTY/CALL.xlsx
@@ -31,7 +31,7 @@
     <t>03-Jan-2017, NIFTY 8192.25</t>
   </si>
   <si>
-    <t>04-Jan-2017, NIFTY 8192.25</t>
+    <t>04-Jan-2017, NIFTY 8190.50</t>
   </si>
   <si>
     <t>25JAN2017</t>
@@ -407,10 +407,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F1" sqref="F1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -418,7 +418,7 @@
     <col customWidth="1" max="3" min="3" width="11"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="1" spans="1:12" thickBot="1">
+    <row customHeight="1" ht="16.5" r="1" spans="1:6" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,26 +437,8 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18.75" r="2" spans="1:12" thickBot="1">
+    </row>
+    <row customHeight="1" ht="18.75" r="2" spans="1:6" thickBot="1">
       <c r="A2" s="2" t="n">
         <v>42714</v>
       </c>
@@ -473,28 +455,10 @@
         <v>243</v>
       </c>
       <c r="F2" t="n">
-        <v>243</v>
-      </c>
-      <c r="G2" t="n">
-        <v>14.35</v>
-      </c>
-      <c r="H2" t="n">
-        <v>14.35</v>
-      </c>
-      <c r="I2" t="n">
-        <v>14.35</v>
-      </c>
-      <c r="J2" t="n">
-        <v>14.35</v>
-      </c>
-      <c r="K2" t="n">
-        <v>14.35</v>
-      </c>
-      <c r="L2" t="n">
-        <v>14.35</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="19.5" r="3" spans="1:12" thickBot="1">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.5" r="3" spans="1:6" thickBot="1">
       <c r="A3" s="2" t="n">
         <v>42715</v>
       </c>
@@ -511,28 +475,10 @@
         <v>321.6</v>
       </c>
       <c r="F3" t="n">
-        <v>321.6</v>
-      </c>
-      <c r="G3" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="I3" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="J3" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="K3" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="L3" t="n">
-        <v>68.40000000000001</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18.75" r="4" spans="1:12" thickBot="1">
+        <v>71.65000000000001</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18.75" r="4" spans="1:6" thickBot="1">
       <c r="A4" s="2" t="n">
         <v>42716</v>
       </c>
@@ -549,28 +495,10 @@
         <v>14.35</v>
       </c>
       <c r="F4" t="n">
-        <v>14.35</v>
-      </c>
-      <c r="G4" t="n">
-        <v>167.25</v>
-      </c>
-      <c r="H4" t="n">
-        <v>167.25</v>
-      </c>
-      <c r="I4" t="n">
-        <v>167.25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>167.25</v>
-      </c>
-      <c r="K4" t="n">
-        <v>167.25</v>
-      </c>
-      <c r="L4" t="n">
-        <v>167.25</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="5" spans="1:12" thickBot="1">
+        <v>174.9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="5" spans="1:6" thickBot="1">
       <c r="A5" s="2" t="n">
         <v>42717</v>
       </c>
@@ -584,28 +512,10 @@
         <v>68.40000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="G5" t="n">
-        <v>257.3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>257.3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>257.3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>257.3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>257.3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>257.3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="6" spans="1:12" thickBot="1">
+        <v>259.4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="6" spans="1:6" thickBot="1">
       <c r="A6" s="2" t="n">
         <v>42718</v>
       </c>
@@ -619,28 +529,10 @@
         <v>4.5</v>
       </c>
       <c r="F6" t="n">
-        <v>167.25</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18.75" r="7" spans="1:12" thickBot="1">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18.75" r="7" spans="1:6" thickBot="1">
       <c r="A7" s="2" t="n">
         <v>42719</v>
       </c>
@@ -654,28 +546,10 @@
         <v>360</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3</v>
-      </c>
-      <c r="G7" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="J7" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="K7" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="L7" t="n">
-        <v>9.050000000000001</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18.75" r="8" spans="1:12" thickBot="1">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18.75" r="8" spans="1:6" thickBot="1">
       <c r="A8" s="2" t="n">
         <v>42720</v>
       </c>
@@ -689,28 +563,10 @@
         <v>1.25</v>
       </c>
       <c r="F8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="18.75" r="9" spans="1:12" thickBot="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18.75" r="9" spans="1:6" thickBot="1">
       <c r="A9" s="2" t="n">
         <v>42721</v>
       </c>
@@ -724,28 +580,10 @@
         <v>9.050000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="G9" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12"/>
+        <v>28.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Code/NIFTY/CALL.xlsx
+++ b/Code/NIFTY/CALL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -31,7 +31,16 @@
     <t>03-Jan-2017, NIFTY 8192.25</t>
   </si>
   <si>
-    <t>04-Jan-2017, NIFTY 8190.50</t>
+    <t>05-Jan-2017, NIFTY 8190.50</t>
+  </si>
+  <si>
+    <t>07-Jan-2017, NIFTY 8243.80</t>
+  </si>
+  <si>
+    <t>11-Jan-2017, NIFTY 8380.65</t>
+  </si>
+  <si>
+    <t>13-Jan-2017, NIFTY 8400.35</t>
   </si>
   <si>
     <t>25JAN2017</t>
@@ -44,18 +53,39 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="3">
+    <numFmt formatCode="General" numFmtId="164"/>
+    <numFmt formatCode="D\-MMM\-YY" numFmtId="165"/>
+    <numFmt formatCode="@" numFmtId="166"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <name val="Liberation Serif"/>
-      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -91,26 +121,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="15" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -159,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,10 +234,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,7 +268,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -403,22 +444,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:Q1048576"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="J10" activeCellId="0" pane="topLeft" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="3" min="3" width="11"/>
+    <col customWidth="1" max="2" min="1" style="5" width="8.570850202429151"/>
+    <col customWidth="1" max="3" min="3" style="5" width="11.0323886639676"/>
+    <col customWidth="1" max="1025" min="4" style="5" width="8.570850202429151"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="1" spans="1:6" thickBot="1">
+    <row customHeight="1" ht="16.5" r="1" s="5" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,14 +474,29 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row customHeight="1" ht="18.75" r="2" spans="1:6" thickBot="1">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18.75" r="2" s="5" spans="1:11">
       <c r="A2" s="2" t="n">
         <v>42714</v>
       </c>
@@ -446,19 +504,34 @@
         <v>8500</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="0" t="n">
         <v>243</v>
       </c>
       <c r="F2" t="n">
         <v>13.8</v>
       </c>
-    </row>
-    <row customHeight="1" ht="19.5" r="3" spans="1:6" thickBot="1">
+      <c r="G2" t="n">
+        <v>18</v>
+      </c>
+      <c r="H2" t="n">
+        <v>18</v>
+      </c>
+      <c r="I2" t="n">
+        <v>30.15</v>
+      </c>
+      <c r="J2" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K2" t="n">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.5" r="3" s="5" spans="1:11">
       <c r="A3" s="2" t="n">
         <v>42715</v>
       </c>
@@ -466,19 +539,34 @@
         <v>8500</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="0" t="n">
         <v>321.6</v>
       </c>
       <c r="F3" t="n">
         <v>71.65000000000001</v>
       </c>
-    </row>
-    <row customHeight="1" ht="18.75" r="4" spans="1:6" thickBot="1">
+      <c r="G3" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>121.05</v>
+      </c>
+      <c r="K3" t="n">
+        <v>121.05</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18.75" r="4" s="5" spans="1:11">
       <c r="A4" s="2" t="n">
         <v>42716</v>
       </c>
@@ -486,19 +574,34 @@
         <v>8100</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="0" t="n">
         <v>14.35</v>
       </c>
       <c r="F4" t="n">
         <v>174.9</v>
       </c>
-    </row>
-    <row customHeight="1" ht="18" r="5" spans="1:6" thickBot="1">
+      <c r="G4" t="n">
+        <v>209.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>209.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>295.7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>319.75</v>
+      </c>
+      <c r="K4" t="n">
+        <v>319.75</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="5" s="5" spans="1:11">
       <c r="A5" s="2" t="n">
         <v>42717</v>
       </c>
@@ -506,16 +609,31 @@
         <v>8100</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>68.40000000000001</v>
       </c>
       <c r="F5" t="n">
         <v>259.4</v>
       </c>
-    </row>
-    <row customHeight="1" ht="18" r="6" spans="1:6" thickBot="1">
+      <c r="G5" t="n">
+        <v>293.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>293.9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>359.35</v>
+      </c>
+      <c r="J5" t="n">
+        <v>387.65</v>
+      </c>
+      <c r="K5" t="n">
+        <v>387.65</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="6" s="5" spans="1:11">
       <c r="A6" s="2" t="n">
         <v>42718</v>
       </c>
@@ -523,16 +641,31 @@
         <v>8900</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <v>4.5</v>
       </c>
       <c r="F6" t="n">
         <v>1.15</v>
       </c>
-    </row>
-    <row customHeight="1" ht="18.75" r="7" spans="1:6" thickBot="1">
+      <c r="G6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18.75" r="7" s="5" spans="1:11">
       <c r="A7" s="2" t="n">
         <v>42719</v>
       </c>
@@ -540,16 +673,31 @@
         <v>8900</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>360</v>
       </c>
       <c r="F7" t="n">
         <v>9.6</v>
       </c>
-    </row>
-    <row customHeight="1" ht="18.75" r="8" spans="1:6" thickBot="1">
+      <c r="G7" t="n">
+        <v>10</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18.75" r="8" s="5" spans="1:11">
       <c r="A8" s="2" t="n">
         <v>42720</v>
       </c>
@@ -557,16 +705,31 @@
         <v>8700</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <v>1.25</v>
       </c>
       <c r="F8" t="n">
         <v>2.6</v>
       </c>
-    </row>
-    <row customHeight="1" ht="18.75" r="9" spans="1:6" thickBot="1">
+      <c r="G8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18.75" r="9" s="5" spans="1:11">
       <c r="A9" s="2" t="n">
         <v>42721</v>
       </c>
@@ -574,17 +737,34 @@
         <v>8700</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" s="0" t="n">
         <v>9.050000000000001</v>
       </c>
       <c r="F9" t="n">
         <v>28.95</v>
       </c>
-    </row>
-    <row r="10" spans="1:6"/>
+      <c r="G9" t="n">
+        <v>31.55</v>
+      </c>
+      <c r="H9" t="n">
+        <v>31.55</v>
+      </c>
+      <c r="I9" t="n">
+        <v>47</v>
+      </c>
+      <c r="J9" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Code/NIFTY/CALL.xlsx
+++ b/Code/NIFTY/CALL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>13-Jan-2017, NIFTY 8400.35</t>
+  </si>
+  <si>
+    <t>17-Jan-2017, NIFTY 8398.00</t>
   </si>
   <si>
     <t>25JAN2017</t>
@@ -448,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="J10" activeCellId="0" pane="topLeft" sqref="J10"/>
@@ -461,7 +464,7 @@
     <col customWidth="1" max="1025" min="4" style="5" width="8.570850202429151"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="1" s="5" spans="1:11">
+    <row customHeight="1" ht="16.5" r="1" s="5" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,8 +498,11 @@
       <c r="K1" t="s">
         <v>8</v>
       </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="18.75" r="2" s="5" spans="1:11">
+    <row customHeight="1" ht="18.75" r="2" s="5" spans="1:12">
       <c r="A2" s="2" t="n">
         <v>42714</v>
       </c>
@@ -504,7 +510,7 @@
         <v>8500</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>40</v>
@@ -530,8 +536,11 @@
       <c r="K2" t="n">
         <v>29.9</v>
       </c>
+      <c r="L2" t="n">
+        <v>20.5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="19.5" r="3" s="5" spans="1:11">
+    <row customHeight="1" ht="19.5" r="3" s="5" spans="1:12">
       <c r="A3" s="2" t="n">
         <v>42715</v>
       </c>
@@ -539,7 +548,7 @@
         <v>8500</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>30</v>
@@ -565,8 +574,11 @@
       <c r="K3" t="n">
         <v>121.05</v>
       </c>
+      <c r="L3" t="n">
+        <v>114.95</v>
+      </c>
     </row>
-    <row customHeight="1" ht="18.75" r="4" s="5" spans="1:11">
+    <row customHeight="1" ht="18.75" r="4" s="5" spans="1:12">
       <c r="A4" s="2" t="n">
         <v>42716</v>
       </c>
@@ -574,7 +586,7 @@
         <v>8100</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>50</v>
@@ -600,8 +612,11 @@
       <c r="K4" t="n">
         <v>319.75</v>
       </c>
+      <c r="L4" t="n">
+        <v>304.95</v>
+      </c>
     </row>
-    <row customHeight="1" ht="18" r="5" s="5" spans="1:11">
+    <row customHeight="1" ht="18" r="5" s="5" spans="1:12">
       <c r="A5" s="2" t="n">
         <v>42717</v>
       </c>
@@ -609,7 +624,7 @@
         <v>8100</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>68.40000000000001</v>
@@ -632,8 +647,11 @@
       <c r="K5" t="n">
         <v>387.65</v>
       </c>
+      <c r="L5" t="n">
+        <v>378.35</v>
+      </c>
     </row>
-    <row customHeight="1" ht="18" r="6" s="5" spans="1:11">
+    <row customHeight="1" ht="18" r="6" s="5" spans="1:12">
       <c r="A6" s="2" t="n">
         <v>42718</v>
       </c>
@@ -641,7 +659,7 @@
         <v>8900</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>4.5</v>
@@ -664,8 +682,11 @@
       <c r="K6" t="n">
         <v>0.65</v>
       </c>
+      <c r="L6" t="n">
+        <v>0.65</v>
+      </c>
     </row>
-    <row customHeight="1" ht="18.75" r="7" s="5" spans="1:11">
+    <row customHeight="1" ht="18.75" r="7" s="5" spans="1:12">
       <c r="A7" s="2" t="n">
         <v>42719</v>
       </c>
@@ -673,7 +694,7 @@
         <v>8900</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>360</v>
@@ -696,8 +717,11 @@
       <c r="K7" t="n">
         <v>12.4</v>
       </c>
+      <c r="L7" t="n">
+        <v>12.35</v>
+      </c>
     </row>
-    <row customHeight="1" ht="18.75" r="8" s="5" spans="1:11">
+    <row customHeight="1" ht="18.75" r="8" s="5" spans="1:12">
       <c r="A8" s="2" t="n">
         <v>42720</v>
       </c>
@@ -705,7 +729,7 @@
         <v>8700</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1.25</v>
@@ -728,8 +752,11 @@
       <c r="K8" t="n">
         <v>3.1</v>
       </c>
+      <c r="L8" t="n">
+        <v>1.6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="18.75" r="9" s="5" spans="1:11">
+    <row customHeight="1" ht="18.75" r="9" s="5" spans="1:12">
       <c r="A9" s="2" t="n">
         <v>42721</v>
       </c>
@@ -737,7 +764,7 @@
         <v>8700</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>9.050000000000001</v>
@@ -760,8 +787,11 @@
       <c r="K9" t="n">
         <v>45.2</v>
       </c>
+      <c r="L9" t="n">
+        <v>42.95</v>
+      </c>
     </row>
-    <row r="10" spans="1:11"/>
+    <row r="10" spans="1:12"/>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
